--- a/TU yields.xlsx
+++ b/TU yields.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TU DELFT - Master Thesis\UF-DecisionMaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0BF80F8-9497-4313-A24D-600A431608D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5169DF5-8372-4AE6-8D48-717C557099C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35445" yWindow="2025" windowWidth="15780" windowHeight="11595"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TU yields" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -52,7 +64,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -886,11 +898,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TU yields.xlsx
+++ b/TU yields.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TU DELFT - Master Thesis\UF-DecisionMaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5169DF5-8372-4AE6-8D48-717C557099C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465CA720-7466-4084-9754-82AA46ACEC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15672" yWindow="192" windowWidth="7716" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TU yields" sheetId="1" r:id="rId1"/>
@@ -899,15 +899,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -918,7 +922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -932,8 +936,12 @@
         <f>C2/365</f>
         <v>146.92723287671205</v>
       </c>
+      <c r="E2">
+        <f>C2/C7*100</f>
+        <v>0.52437942236413682</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -947,8 +955,12 @@
         <f t="shared" ref="D3:D6" si="0">C3/365</f>
         <v>346.60273972602738</v>
       </c>
+      <c r="E3">
+        <f>C3/C7*100</f>
+        <v>1.237016044533219</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -962,8 +974,12 @@
         <f t="shared" si="0"/>
         <v>3881.1643835616437</v>
       </c>
+      <c r="E4">
+        <f>C4/C7*100</f>
+        <v>13.851773409903339</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -977,8 +993,16 @@
         <f t="shared" si="0"/>
         <v>23644.565479452056</v>
       </c>
+      <c r="E5">
+        <f>C5/C7*100</f>
+        <v>84.386831123199315</v>
+      </c>
+      <c r="F5">
+        <f>C5/E9*100</f>
+        <v>85.642434482632552</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -992,19 +1016,33 @@
         <f t="shared" si="0"/>
         <v>3963.9041095890411</v>
       </c>
+      <c r="F6">
+        <f>C6/E9*100</f>
+        <v>14.357565517367441</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <f>SUM(C2:C5)</f>
+        <v>10227029.84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
+      <c r="E9">
+        <f>SUM(C5:C6)</f>
+        <v>10077091.4</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>D5/0.25</f>
         <v>94578.261917808224</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>101000</v>
       </c>
